--- a/Data/original_data/160620_Phase.xlsx
+++ b/Data/original_data/160620_Phase.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moliang\Documents\MATLAB\AIM2_AP\Phase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="3640" windowWidth="16500" windowHeight="8680" tabRatio="500"/>
+    <workbookView xWindow="7935" yWindow="3645" windowWidth="16500" windowHeight="8685" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="160620_Phase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>start time</t>
   </si>
@@ -55,9 +60,6 @@
   </si>
   <si>
     <t>Pt departure</t>
-  </si>
-  <si>
-    <t>Video start time:</t>
   </si>
 </sst>
 </file>
@@ -137,6 +139,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -462,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,32 +499,12 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>H2-B$9</f>
         <v>5.0347222222222321E-3</v>
       </c>
       <c r="B2" s="1">
-        <f>I2-B$9</f>
         <v>1.10069444444445E-2</v>
       </c>
       <c r="C2" t="s">
@@ -526,29 +516,12 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.79840277777777768</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.80437499999999995</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A7" si="0">H3-B$9</f>
         <v>1.10069444444445E-2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B7" si="1">I3-B$9</f>
         <v>1.1018518518518539E-2</v>
       </c>
       <c r="C3" t="s">
@@ -560,31 +533,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <f>I2</f>
-        <v>0.80437499999999995</v>
-      </c>
-      <c r="I3" s="1">
-        <f>H3+B$11</f>
-        <v>0.80438657407407399</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" si="0"/>
         <v>1.1226851851851904E-2</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" si="1"/>
         <v>1.2372685185185306E-2</v>
       </c>
       <c r="C4" t="s">
@@ -596,29 +550,12 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.80459490740740736</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.80574074074074076</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
         <v>1.2372685185185306E-2</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="1"/>
         <v>1.9143518518518698E-2</v>
       </c>
       <c r="C5" t="s">
@@ -630,30 +567,12 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
-        <f>I4</f>
-        <v>0.80574074074074076</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.81251157407407415</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
         <v>1.9143518518518698E-2</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="1"/>
         <v>2.9456018518518645E-2</v>
       </c>
       <c r="C6" t="s">
@@ -665,30 +584,12 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
-        <f>I5</f>
-        <v>0.81251157407407415</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.8228240740740741</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
         <v>2.9456018518518645E-2</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="1"/>
         <v>2.9467592592592684E-2</v>
       </c>
       <c r="C7" t="s">
@@ -700,34 +601,9 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
-        <f>I6</f>
-        <v>0.8228240740740741</v>
-      </c>
-      <c r="I7" s="1">
-        <f>H7+B$11</f>
-        <v>0.82283564814814814</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.79336805555555545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
